--- a/log/waterschapsverordening_RTR_prod_status_22-04-2024.xlsx
+++ b/log/waterschapsverordening_RTR_prod_status_22-04-2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="487">
   <si>
     <t xml:space="preserve">Activiteit                   </t>
   </si>
@@ -55,7 +55,7 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>BodemsaneringUitvoeren, WaterUitDeGrondHalen</t>
+    <t>WaterUitDeGrondHalen, BodemsaneringUitvoeren</t>
   </si>
   <si>
     <t>27-12-2023 10:29:31</t>
@@ -115,7 +115,7 @@
     <t>2.6</t>
   </si>
   <si>
-    <t>SlopenVanEenBouwwwerkOfDeelDaarvanOfHetVerwijderenVanAsbest, BouwwerkReinigenOfConserveren, BouwwerkOnderhouden</t>
+    <t>BouwwerkReinigenOfConserveren, BouwwerkOnderhouden, SlopenVanEenBouwwwerkOfDeelDaarvanOfHetVerwijderenVanAsbest</t>
   </si>
   <si>
     <t>04-01-2024 11:04:25</t>
@@ -208,7 +208,7 @@
     <t>2.13</t>
   </si>
   <si>
-    <t>DrinkwaterVoorVeeKlaarmaken, FruitSorteren, GietwaterKlaarmaken, GewassenSpoelen</t>
+    <t>GietwaterKlaarmaken, FruitSorteren, GewassenSpoelen, DrinkwaterVoorVeeKlaarmaken</t>
   </si>
   <si>
     <t>04-01-2024 11:06:38</t>
@@ -250,7 +250,7 @@
     <t>2.16</t>
   </si>
   <si>
-    <t>VisvijverExploiteren, BedrijfVoorTelenEnKwekenVanWaterplantenOfWaterdieren</t>
+    <t>BedrijfVoorTelenEnKwekenVanWaterplantenOfWaterdieren, VisvijverExploiteren</t>
   </si>
   <si>
     <t>04-01-2024 11:09:10</t>
@@ -388,7 +388,7 @@
     <t>4.7.2</t>
   </si>
   <si>
-    <t>BrugWeghalen, BrugPlaatsen, BrugVeranderen</t>
+    <t>BrugVeranderen, BrugWeghalen, BrugPlaatsen</t>
   </si>
   <si>
     <t>21-03-2024 10:49:54</t>
@@ -427,7 +427,7 @@
     <t>4.33</t>
   </si>
   <si>
-    <t>GevaarlijkeStoffenOpslaanInVerpakking, OntplofbareStoffenOfVoorwerpenOpslaanEtc, GasOpslaanInEenOpslagtank</t>
+    <t>OntplofbareStoffenOfVoorwerpenOpslaanEtc, GasOpslaanInEenOpslagtank, GevaarlijkeStoffenOpslaanInVerpakking</t>
   </si>
   <si>
     <t>21-03-2024 10:51:14</t>
@@ -496,7 +496,7 @@
     <t>4.8.1</t>
   </si>
   <si>
-    <t>SteigerVeranderen, SteigerPlaatsen</t>
+    <t>SteigerPlaatsen, SteigerVeranderen</t>
   </si>
   <si>
     <t>21-03-2024 10:37:58</t>
@@ -517,7 +517,7 @@
     <t>4.8.2</t>
   </si>
   <si>
-    <t>SteigerVeranderen, SteigerPlaatsen, SteigerWeghalen</t>
+    <t>SteigerWeghalen, SteigerVeranderen, SteigerPlaatsen</t>
   </si>
   <si>
     <t>21-03-2024 10:46:26</t>
@@ -598,7 +598,7 @@
     <t>4.10.1</t>
   </si>
   <si>
-    <t>OnttrekkingsvoorzieningPlaatsen, LozingsvoorzieningPlaatsen</t>
+    <t>LozingsvoorzieningPlaatsen, OnttrekkingsvoorzieningPlaatsen</t>
   </si>
   <si>
     <t>21-03-2024 11:00:14</t>
@@ -619,7 +619,7 @@
     <t>4.10.2</t>
   </si>
   <si>
-    <t>OnttrekkingsvoorzieningPlaatsen, LozingsvoorzieningWeghalen, LozingsvoorzieningPlaatsen</t>
+    <t>OnttrekkingsvoorzieningPlaatsen, LozingsvoorzieningPlaatsen, LozingsvoorzieningWeghalen</t>
   </si>
   <si>
     <t>21-03-2024 10:26:20</t>
@@ -700,7 +700,7 @@
     <t>4.17.2</t>
   </si>
   <si>
-    <t>VerhardingAanbrengen, VerhardingWeghalen</t>
+    <t>VerhardingWeghalen, VerhardingAanbrengen</t>
   </si>
   <si>
     <t>21-03-2024 10:44:40</t>
@@ -718,7 +718,7 @@
     <t>4.14.1</t>
   </si>
   <si>
-    <t>TuinmeubilairPlaatsen, AardgasBehandelen, ConstructiePlaatsen, BouwwerkInfrastructuurPlaatsen, SpeeltoestelPlaatsen, ZonnepaneelPlaatsen, BouwwerkAgrarischPlaatsen</t>
+    <t>ZonnepaneelPlaatsen, AardgasBehandelen, SpeeltoestelPlaatsen, ConstructiePlaatsen, BouwwerkInfrastructuurPlaatsen, BouwwerkAgrarischPlaatsen, TuinmeubilairPlaatsen</t>
   </si>
   <si>
     <t>21-03-2024 14:39:39</t>
@@ -739,7 +739,7 @@
     <t>4.14.2</t>
   </si>
   <si>
-    <t>BouwwerkAgrarischPlaatsen, TuinmeubilairPlaatsen, BouwwerkInfrastructuurPlaatsen, ConstructiePlaatsen, SlopenVanEenBouwwwerkOfDeelDaarvanOfHetVerwijderenVanAsbest, SpeeltoestelPlaatsen, ConstructieWeghalen, ZonnepaneelPlaatsen</t>
+    <t>ConstructieWeghalen, SpeeltoestelPlaatsen, SlopenVanEenBouwwwerkOfDeelDaarvanOfHetVerwijderenVanAsbest, ConstructiePlaatsen, BouwwerkAgrarischPlaatsen, TuinmeubilairPlaatsen, BouwwerkInfrastructuurPlaatsen, ZonnepaneelPlaatsen</t>
   </si>
   <si>
     <t>21-03-2024 10:37:14</t>
@@ -757,7 +757,7 @@
     <t>4.16.1</t>
   </si>
   <si>
-    <t>Windturbine, AardgasBehandelen, AanbouwVeranderen, GebouwPlaatsen, BouwwerkAgrarischPlaatsen, GebouwVeranderen, AanbouwPlaatsen</t>
+    <t>AanbouwVeranderen, Windturbine, GebouwPlaatsen, AanbouwPlaatsen, BouwwerkAgrarischPlaatsen, AardgasBehandelen, GebouwVeranderen</t>
   </si>
   <si>
     <t>21-03-2024 10:39:52</t>
@@ -778,7 +778,7 @@
     <t>4.16.2</t>
   </si>
   <si>
-    <t>AanbouwPlaatsen, SlopenVanEenBouwwwerkOfDeelDaarvanOfHetVerwijderenVanAsbest, Windturbine, BouwwerkAgrarischPlaatsen</t>
+    <t>Windturbine, SlopenVanEenBouwwwerkOfDeelDaarvanOfHetVerwijderenVanAsbest, AanbouwPlaatsen, BouwwerkAgrarischPlaatsen</t>
   </si>
   <si>
     <t>21-03-2024 10:25:08</t>
@@ -958,360 +958,366 @@
     <t>4.28.2</t>
   </si>
   <si>
+    <t>CivielKunstwerkPlaatsen, CivielKunstwerkWeghalen</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:40:23</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:40:33</t>
+  </si>
+  <si>
+    <t>sluis vervangen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.SluisVervangen</t>
+  </si>
+  <si>
+    <t>4.28.3</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:55:14</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:55:07</t>
+  </si>
+  <si>
+    <t>afsluitbare duiker aanleggen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.AfsluitbareDuikerAan</t>
+  </si>
+  <si>
+    <t>4.30.1</t>
+  </si>
+  <si>
+    <t>DamPlaatsen</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:28:32</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:28:27</t>
+  </si>
+  <si>
+    <t>afsluitbare duiker verwijderen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.AfsluitbareDuikerVerw</t>
+  </si>
+  <si>
+    <t>4.30.2</t>
+  </si>
+  <si>
+    <t>DamWeghalen, DamPlaatsen</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:47:27</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:47:11</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:47:18</t>
+  </si>
+  <si>
+    <t>afsluitbare duiker vervangen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.AfsluitbareDuikerVer</t>
+  </si>
+  <si>
+    <t>4.30.3</t>
+  </si>
+  <si>
+    <t>21-03-2024 14:40:17</t>
+  </si>
+  <si>
+    <t>21-03-2024 14:40:04</t>
+  </si>
+  <si>
+    <t>stuw aanleggen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.StuwAanleggen</t>
+  </si>
+  <si>
+    <t>4.27.1</t>
+  </si>
+  <si>
+    <t>StuwPlaatsen</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:48:38</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:48:31</t>
+  </si>
+  <si>
+    <t>stuw verwijderen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.StuwVerwijderen</t>
+  </si>
+  <si>
+    <t>4.27.2</t>
+  </si>
+  <si>
+    <t>StuwPlaatsen, StuwWeghalen</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:28:17</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:28:12</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:28:07</t>
+  </si>
+  <si>
+    <t>stuw vervangen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.StuwVervangen</t>
+  </si>
+  <si>
+    <t>4.27.3</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:54:58</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:54:51</t>
+  </si>
+  <si>
+    <t>kabel of leiding aanleggen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.KabelLeidingAanleggen</t>
+  </si>
+  <si>
+    <t>4.11.1</t>
+  </si>
+  <si>
+    <t>KabelPlaatsen</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:39:41</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:39:32</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:39:22</t>
+  </si>
+  <si>
+    <t>kabel of leiding verwijderen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.KabelLeidingVerwijderen</t>
+  </si>
+  <si>
+    <t>4.11.2</t>
+  </si>
+  <si>
+    <t>KabelPlaatsen, KabelWeghalen</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:24:50</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:17:45</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:24:45</t>
+  </si>
+  <si>
+    <t>bodemenergiesysteem aanleggen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.BodemEnergieAanleg</t>
+  </si>
+  <si>
+    <t>4.23.1</t>
+  </si>
+  <si>
+    <t>BodemenergiesysteemAanleggenEnGebruiken</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:41:32</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:41:41</t>
+  </si>
+  <si>
+    <t>bodemenergiesysteem verwijderen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.BodemEnergieVerwijderen</t>
+  </si>
+  <si>
+    <t>4.23.2</t>
+  </si>
+  <si>
+    <t>21-03-2024 14:40:58</t>
+  </si>
+  <si>
+    <t>21-03-2024 14:40:44</t>
+  </si>
+  <si>
+    <t>grondboring of sondering uitvoeren</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.GrondboringOfSondering</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>GrondboringOfSonderingUitvoeren</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:27:51</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:27:56</t>
+  </si>
+  <si>
+    <t>gemaal aanleggen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.GemaalAanleggen</t>
+  </si>
+  <si>
+    <t>4.26.1</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:26:07</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:26:03</t>
+  </si>
+  <si>
+    <t>gemaal verwijderen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.GemaalVerwijderen</t>
+  </si>
+  <si>
+    <t>4.26.2</t>
+  </si>
+  <si>
     <t>CivielKunstwerkWeghalen, CivielKunstwerkPlaatsen</t>
   </si>
   <si>
-    <t>21-03-2024 10:40:23</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:40:33</t>
-  </si>
-  <si>
-    <t>sluis vervangen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.SluisVervangen</t>
-  </si>
-  <si>
-    <t>4.28.3</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:55:14</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:55:07</t>
-  </si>
-  <si>
-    <t>afsluitbare duiker aanleggen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.AfsluitbareDuikerAan</t>
-  </si>
-  <si>
-    <t>4.30.1</t>
-  </si>
-  <si>
-    <t>DamPlaatsen</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:28:32</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:28:27</t>
-  </si>
-  <si>
-    <t>afsluitbare duiker verwijderen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.AfsluitbareDuikerVerw</t>
-  </si>
-  <si>
-    <t>4.30.2</t>
+    <t>21-03-2024 10:46:07</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:45:48</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:45:55</t>
+  </si>
+  <si>
+    <t>gemaal vervangen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.GemaalVervangen</t>
+  </si>
+  <si>
+    <t>4.26.3</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:55:31</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:55:24</t>
+  </si>
+  <si>
+    <t>dam met duiker aanleggen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.DamMetDuikerAanleggen</t>
+  </si>
+  <si>
+    <t>4.5.1</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:50:48</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:50:40</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:50:54</t>
+  </si>
+  <si>
+    <t>dam met duiker verwijderen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.DamMetDuikerVerwijderen</t>
+  </si>
+  <si>
+    <t>4.5.2</t>
+  </si>
+  <si>
+    <t>21-03-2024 14:41:27</t>
+  </si>
+  <si>
+    <t>21-03-2024 14:41:35</t>
+  </si>
+  <si>
+    <t>21-03-2024 14:41:15</t>
+  </si>
+  <si>
+    <t>duiker aanleggen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.DuikerAanleggen</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:42:19</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:41:51</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:42:09</t>
+  </si>
+  <si>
+    <t>duiker verwijderen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.DuikerVerwijderen</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:45:38</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:45:31</t>
+  </si>
+  <si>
+    <t>21-03-2024 10:45:24</t>
+  </si>
+  <si>
+    <t>duiker vervangen</t>
+  </si>
+  <si>
+    <t>nl.imow-ws0636.activiteit.DuikerVervangen</t>
+  </si>
+  <si>
+    <t>4.4.3</t>
   </si>
   <si>
     <t>DamPlaatsen, DamWeghalen</t>
   </si>
   <si>
-    <t>21-03-2024 10:47:27</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:47:11</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:47:18</t>
-  </si>
-  <si>
-    <t>afsluitbare duiker vervangen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.AfsluitbareDuikerVer</t>
-  </si>
-  <si>
-    <t>4.30.3</t>
-  </si>
-  <si>
-    <t>21-03-2024 14:40:17</t>
-  </si>
-  <si>
-    <t>21-03-2024 14:40:04</t>
-  </si>
-  <si>
-    <t>stuw aanleggen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.StuwAanleggen</t>
-  </si>
-  <si>
-    <t>4.27.1</t>
-  </si>
-  <si>
-    <t>StuwPlaatsen</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:48:38</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:48:31</t>
-  </si>
-  <si>
-    <t>stuw verwijderen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.StuwVerwijderen</t>
-  </si>
-  <si>
-    <t>4.27.2</t>
-  </si>
-  <si>
-    <t>StuwPlaatsen, StuwWeghalen</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:28:17</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:28:12</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:28:07</t>
-  </si>
-  <si>
-    <t>stuw vervangen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.StuwVervangen</t>
-  </si>
-  <si>
-    <t>4.27.3</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:54:58</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:54:51</t>
-  </si>
-  <si>
-    <t>kabel of leiding aanleggen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.KabelLeidingAanleggen</t>
-  </si>
-  <si>
-    <t>4.11.1</t>
-  </si>
-  <si>
-    <t>KabelPlaatsen</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:39:41</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:39:32</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:39:22</t>
-  </si>
-  <si>
-    <t>kabel of leiding verwijderen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.KabelLeidingVerwijderen</t>
-  </si>
-  <si>
-    <t>4.11.2</t>
-  </si>
-  <si>
-    <t>KabelWeghalen, KabelPlaatsen</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:24:50</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:17:45</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:24:45</t>
-  </si>
-  <si>
-    <t>bodemenergiesysteem aanleggen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.BodemEnergieAanleg</t>
-  </si>
-  <si>
-    <t>4.23.1</t>
-  </si>
-  <si>
-    <t>BodemenergiesysteemAanleggenEnGebruiken</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:41:32</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:41:41</t>
-  </si>
-  <si>
-    <t>bodemenergiesysteem verwijderen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.BodemEnergieVerwijderen</t>
-  </si>
-  <si>
-    <t>4.23.2</t>
-  </si>
-  <si>
-    <t>21-03-2024 14:40:58</t>
-  </si>
-  <si>
-    <t>21-03-2024 14:40:44</t>
-  </si>
-  <si>
-    <t>grondboring of sondering uitvoeren</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.GrondboringOfSondering</t>
-  </si>
-  <si>
-    <t>4.22</t>
-  </si>
-  <si>
-    <t>GrondboringOfSonderingUitvoeren</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:27:51</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:27:56</t>
-  </si>
-  <si>
-    <t>gemaal aanleggen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.GemaalAanleggen</t>
-  </si>
-  <si>
-    <t>4.26.1</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:26:07</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:26:03</t>
-  </si>
-  <si>
-    <t>gemaal verwijderen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.GemaalVerwijderen</t>
-  </si>
-  <si>
-    <t>4.26.2</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:46:07</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:45:48</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:45:55</t>
-  </si>
-  <si>
-    <t>gemaal vervangen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.GemaalVervangen</t>
-  </si>
-  <si>
-    <t>4.26.3</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:55:31</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:55:24</t>
-  </si>
-  <si>
-    <t>dam met duiker aanleggen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.DamMetDuikerAanleggen</t>
-  </si>
-  <si>
-    <t>4.5.1</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:50:48</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:50:40</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:50:54</t>
-  </si>
-  <si>
-    <t>dam met duiker verwijderen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.DamMetDuikerVerwijderen</t>
-  </si>
-  <si>
-    <t>4.5.2</t>
-  </si>
-  <si>
-    <t>21-03-2024 14:41:27</t>
-  </si>
-  <si>
-    <t>21-03-2024 14:41:35</t>
-  </si>
-  <si>
-    <t>21-03-2024 14:41:15</t>
-  </si>
-  <si>
-    <t>duiker aanleggen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.DuikerAanleggen</t>
-  </si>
-  <si>
-    <t>4.4.1</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:42:19</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:41:51</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:42:09</t>
-  </si>
-  <si>
-    <t>duiker verwijderen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.DuikerVerwijderen</t>
-  </si>
-  <si>
-    <t>4.4.2</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:45:38</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:45:31</t>
-  </si>
-  <si>
-    <t>21-03-2024 10:45:24</t>
-  </si>
-  <si>
-    <t>duiker vervangen</t>
-  </si>
-  <si>
-    <t>nl.imow-ws0636.activiteit.DuikerVervangen</t>
-  </si>
-  <si>
-    <t>4.4.3</t>
-  </si>
-  <si>
     <t>21-03-2024 10:27:36</t>
   </si>
   <si>
@@ -1376,9 +1382,6 @@
   </si>
   <si>
     <t>4.31.2</t>
-  </si>
-  <si>
-    <t>CivielKunstwerkPlaatsen, CivielKunstwerkWeghalen</t>
   </si>
   <si>
     <t>21-03-2024 10:50:32</t>
@@ -3578,405 +3581,405 @@
         <v>396</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>325</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>325</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>331</v>
+        <v>433</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>325</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>331</v>
+        <v>433</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>454</v>
+        <v>314</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I83" s="2"/>
     </row>
